--- a/Đồ Án Chuyên Ngành/Đánh giá model.xlsx
+++ b/Đồ Án Chuyên Ngành/Đánh giá model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deadline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deadline\BaoCaoMonHoc\Đồ Án Chuyên Ngành\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>CPU</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Epoch ( Pytorch, Tensorflow )</t>
+  </si>
+  <si>
+    <t>Tflite chưa được Jetson Nano hỗ trợ chạy trên GPU</t>
   </si>
 </sst>
 </file>
@@ -223,40 +226,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -547,160 +550,160 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>0.96</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>0.84</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>6.4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>0.77</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>1384</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.88</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.64</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>7.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.84</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="K5" s="5" t="s">
+      <c r="H5" s="13"/>
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
         <v>0.95</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>1.2E-2</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -712,113 +715,115 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>0.85</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>0.79</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>0.98</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>9.5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>0.98</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>0.5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Đồ Án Chuyên Ngành/Đánh giá model.xlsx
+++ b/Đồ Án Chuyên Ngành/Đánh giá model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>CPU</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Tflite chưa được Jetson Nano hỗ trợ chạy trên GPU</t>
+  </si>
+  <si>
+    <t>TensorRT ( các bản convert)</t>
+  </si>
+  <si>
+    <t>Yolov5</t>
+  </si>
+  <si>
+    <t>1.9Gb</t>
+  </si>
+  <si>
+    <t>Làm trên Jetson Nano bản 2gb dễ bị sập nguồn. FPS không ổn định, drop liên tục</t>
+  </si>
+  <si>
+    <t>Yolov4- đang thực hiện</t>
+  </si>
+  <si>
+    <t>Yolov4- DeepStream- đang thực hiện</t>
   </si>
 </sst>
 </file>
@@ -220,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -266,6 +284,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,15 +574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="2"/>
@@ -825,8 +852,95 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1">
+        <v>24</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A11:H11"/>
@@ -835,5 +949,6 @@
     <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>